--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W20_H50_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W20_H50_B16.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.554140127388535</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0.551829268292683</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9613259668508287</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04761904761904762</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0.551829268292683</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7030303030303029</v>
+        <v>0.7111984282907663</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5396341463414634</v>
+        <v>0.4847560975609756</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1198671984596885</v>
+        <v>0.1330598376625652</v>
       </c>
       <c r="J2" t="n">
-        <v>1620.683687793702</v>
+        <v>1800.670542039586</v>
       </c>
       <c r="K2" t="n">
-        <v>4010725.145610527</v>
+        <v>4603341.41398477</v>
       </c>
       <c r="L2" t="n">
-        <v>2002.679491483978</v>
+        <v>2145.539888695796</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2434133912385177</v>
+        <v>0.1316217534403357</v>
       </c>
     </row>
   </sheetData>
